--- a/data/trans_camb/P5_6-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_6-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,15</t>
+          <t>-20,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>-9,77</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,72; 3,6</t>
+          <t>-56,8; 3,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 6,4</t>
+          <t>-10,87; 9,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 2,17</t>
+          <t>-36,0; 3,33</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,84%</t>
+          <t>-22,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,07%</t>
+          <t>0,03%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,65%</t>
+          <t>-10,43%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,64; 3,94</t>
+          <t>-60,93; 3,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 6,9</t>
+          <t>-11,07; 10,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 2,25</t>
+          <t>-38,48; 3,8</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,39</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 3,68</t>
+          <t>-3,22; 3,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 2,82</t>
+          <t>-5,1; 3,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 2,4</t>
+          <t>-3,14; 2,3</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,28%</t>
+          <t>-0,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>-0,41%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 3,88</t>
+          <t>-3,24; 3,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 2,99</t>
+          <t>-5,15; 4,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 2,52</t>
+          <t>-3,25; 2,4</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 1,98</t>
+          <t>-1,9; 3,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 3,63</t>
+          <t>-4,77; 4,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 1,85</t>
+          <t>-2,91; 2,85</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,1%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,54%</t>
+          <t>0,07%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 2,0</t>
+          <t>-1,9; 3,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 3,91</t>
+          <t>-4,95; 5,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 1,96</t>
+          <t>-2,98; 2,98</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 1,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 0,9</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 1,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-3,05</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-13,76; 0,69</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 3,02</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; 0,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-3,12%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,25%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-1,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-14,07; 0,68</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-3,49; 3,23</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-6,76; 0,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P5_6-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_6-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-20,61</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-9,77</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-16.09583924305456</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.09136842957245817</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-7.690533262954801</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-56,8; 3,02</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,87; 9,01</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-36,0; 3,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-50.42627903393463</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.70165350960668</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-29.87124074396502</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-22,03%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,03%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-10,43%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.707214969655113</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.127547961527043</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.070695928535812</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-60,93; 3,29</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-11,07; 10,44</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-38,48; 3,8</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.1720446928253152</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.0009741706889526199</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.08209256032661623</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.5324193985887972</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1104981057803199</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3223246874537809</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,22; 3,22</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; 3,86</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,14; 2,3</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.04048487034065671</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.1049076543573753</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.04199960438081531</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,07%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,72%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,41%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.2094355150129346</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.3720307497299125</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.3083050270077159</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; 3,36</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,15; 4,16</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 2,4</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.717692054400342</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.677480433723398</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.950483442350733</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.110479123743411</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.072520730446612</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.385467158694934</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,9; 3,71</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,77; 4,88</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,91; 2,85</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.002138937445037856</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.00387735596713055</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.003181661259643103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,17%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,07%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.0373352107080058</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.04779932032031817</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.03023451732021677</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,9; 3,85</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,95; 5,29</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,98; 2,98</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.0324865233763515</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.04354414390314979</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.02508558500421985</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.1100048409994003</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.6679018453944918</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.2665690775509599</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-1.682315058383445</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-6.40228270117812</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-3.824568447729833</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>3.719395103961626</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>4.269305156246896</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2.664414665134839</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.001110444929241926</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.00704547116084349</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.002757008189310212</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-3,05</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.01692106849636826</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.06595324197880305</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.03909933456942848</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-13,76; 0,69</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,35; 3,02</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-6,55; 0,63</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.03874371385520238</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.04600647505282054</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.0280582155402369</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-3,12%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-0,25%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-1,61%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.305316895320708</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.4442754959527284</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-1.308548172279189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-14,07; 0,68</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-3,49; 3,23</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-6,76; 0,65</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-10.9575694374396</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.632872002284179</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.411857610853484</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.8571176114626847</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.928841359427671</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.7431560777452029</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.02358289398509344</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.004667745996064507</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.01357733173448126</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.111174800553718</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.03752100573063549</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.05577323671944161</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.008781933953970865</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.03094707683794894</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.007863347549437585</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
